--- a/araki.xlsx
+++ b/araki.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDisk\WorkingProgress\First\Python\WebScrapping\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2CFE53-19B7-4D08-9424-F1D22BDF295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C151EA9-085F-4083-B6A2-B824FF0BA3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="2430" windowWidth="21600" windowHeight="11235" xr2:uid="{F656E4F3-3E05-4A1D-88C6-D06E2568D111}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F656E4F3-3E05-4A1D-88C6-D06E2568D111}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>人が入力</t>
   </si>
@@ -48,6 +48,9 @@
     <t>e-life＆work shop</t>
   </si>
   <si>
+    <t>工具ショップ</t>
+  </si>
+  <si>
     <t>晃栄産業　楽天市場店</t>
   </si>
   <si>
@@ -75,86 +78,110 @@
     <t>定価</t>
   </si>
   <si>
+    <t>平均単価(今後必要なくなる予定)</t>
+  </si>
+  <si>
+    <t>粗利</t>
+  </si>
+  <si>
+    <t>RT後の利益</t>
+  </si>
+  <si>
+    <t>FA売価(税込)</t>
+  </si>
+  <si>
+    <t>価格</t>
+  </si>
+  <si>
+    <t>ポイント</t>
+  </si>
+  <si>
+    <t>クーポン</t>
+  </si>
+  <si>
+    <t>限定</t>
+  </si>
+  <si>
+    <t>アシックス CP210</t>
+  </si>
+  <si>
+    <t>asc-1273a006-600</t>
+  </si>
+  <si>
+    <t>asc-1273a006-600-280</t>
+  </si>
+  <si>
+    <t>アシックス CP210 1273A006.600 サイズ28.0 クラシックレッド×ホワイト</t>
+  </si>
+  <si>
+    <t>asc-1273a006-602</t>
+  </si>
+  <si>
+    <t>asc-1273a006-602-270</t>
+  </si>
+  <si>
+    <t>アシックス CP210 1273A006.602 サイズ27.0 ハバネロ×ピエドモントグレー</t>
+  </si>
+  <si>
+    <t>asc-1273a006-602-275</t>
+  </si>
+  <si>
+    <t>アシックス CP210 1273A006.602 サイズ27.5 ハバネロ×ピエドモントグレー</t>
+  </si>
+  <si>
+    <t>asc-1273a006-602-280</t>
+  </si>
+  <si>
+    <t>アシックス CP210 1273A006.602 サイズ28.0 ハバネロ×ピエドモントグレー</t>
+  </si>
+  <si>
+    <t>asc-1273a018-600-250</t>
+  </si>
+  <si>
+    <t>asc-1273a018-600</t>
+  </si>
+  <si>
+    <t>アシックス CP701 1273A018.600 サイズ25.0 クラシックレッド×ホワイト</t>
+  </si>
+  <si>
+    <t>アシックス CP701</t>
+  </si>
+  <si>
+    <t>asc-1273a018-600-255</t>
+  </si>
+  <si>
+    <t>アシックス CP701 1273A018.600 サイズ25.5 クラシックレッド×ホワイト</t>
+  </si>
+  <si>
+    <t>asc-1273a018-600-260</t>
+  </si>
+  <si>
+    <t>アシックス CP701 1273A018.600 サイズ26.0 クラシックレッド×ホワイト</t>
+  </si>
+  <si>
+    <t>asc-1273a018-600-265</t>
+  </si>
+  <si>
+    <t>アシックス CP701 1273A018.600 サイズ26.5 クラシックレッド×ホワイト</t>
+  </si>
+  <si>
+    <t>在庫</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
     <t>仕入金額</t>
-  </si>
-  <si>
-    <t>平均単価(今後必要なくなる予定)</t>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>FA売価(税抜)</t>
-  </si>
-  <si>
-    <t>粗利</t>
-  </si>
-  <si>
-    <t>RT後の利益</t>
-  </si>
-  <si>
-    <t>FA売価(税込)</t>
-  </si>
-  <si>
-    <t>価格</t>
-  </si>
-  <si>
-    <t>ポイント</t>
-  </si>
-  <si>
-    <t>クーポン</t>
-  </si>
-  <si>
-    <t>asc-1271a029-025-250</t>
-  </si>
-  <si>
-    <t>asc-1271a029-025</t>
-  </si>
-  <si>
-    <t>アシックス CP209 Boa 1271A029.025 サイズ25.0 ファントム×シルバー</t>
-  </si>
-  <si>
-    <t>アシックス CP209</t>
-  </si>
-  <si>
-    <t>限定</t>
-  </si>
-  <si>
-    <t>https://www.rakuten.co.jp/waste/</t>
-  </si>
-  <si>
-    <t>https://www.rakuten.co.jp/kouei-sangyou/</t>
-  </si>
-  <si>
-    <t>https://www.rakuten.co.jp/dear-worker/</t>
-  </si>
-  <si>
-    <t>asc-1271a029-025-255</t>
-  </si>
-  <si>
-    <t>アシックス CP209 Boa 1271A029.025 サイズ25.5 ファントム×シルバー</t>
-  </si>
-  <si>
-    <t>asc-1271a029-025-260</t>
-  </si>
-  <si>
-    <t>アシックス CP209 Boa 1271A029.025 サイズ26.0 ファントム×シルバー</t>
-  </si>
-  <si>
-    <t>https://www.rakuten.co.jp/kougushop/</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>工具ショップ</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>アシックス CP209</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,15 +220,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -264,12 +282,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8CBAD"/>
+        <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -311,15 +329,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -327,15 +336,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,22 +381,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -402,7 +393,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -411,12 +402,11 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -729,13 +719,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB560-2986-4026-AD20-FA83918CD1A2}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.19921875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="53.796875" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
@@ -745,8 +741,8 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,360 +790,513 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="20" t="s">
+      <c r="N2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="20" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="23" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="Q3" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="S3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="V3" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="X3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="AA3" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="AC3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="AF3" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1">
-        <v>14900</v>
-      </c>
-      <c r="H4" s="1">
-        <v>11920</v>
-      </c>
-      <c r="I4" s="1">
-        <v>11920</v>
-      </c>
-      <c r="J4" s="1">
-        <v>12700</v>
-      </c>
-      <c r="K4" s="13">
-        <v>0.06</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-490</v>
-      </c>
-      <c r="M4" s="1">
-        <v>13970</v>
-      </c>
-      <c r="N4" s="14">
-        <v>13750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="14">
-        <v>13915</v>
-      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" s="14">
-        <v>13970</v>
-      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" s="14">
-        <v>14677</v>
-      </c>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="16" t="s">
-        <v>32</v>
-      </c>
+      <c r="AG4" s="1"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1">
-        <v>14900</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10430</v>
-      </c>
-      <c r="I5" s="1">
-        <v>10430</v>
-      </c>
-      <c r="J5" s="1">
-        <v>12700</v>
-      </c>
-      <c r="K5" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="1">
-        <v>13970</v>
-      </c>
-      <c r="N5" s="14">
-        <v>13750</v>
-      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="14">
-        <v>13915</v>
-      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="14">
-        <v>13970</v>
-      </c>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="14">
-        <v>14677</v>
-      </c>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="18"/>
+      <c r="AG5" s="1"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>14900</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10430</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10430</v>
-      </c>
-      <c r="J6" s="1">
-        <v>12700</v>
-      </c>
-      <c r="K6" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="1">
-        <v>13970</v>
-      </c>
-      <c r="N6" s="14">
-        <v>13750</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="14">
-        <v>13915</v>
-      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="14">
-        <v>13970</v>
-      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="14">
-        <v>14677</v>
-      </c>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="18"/>
+      <c r="AG6" s="1"/>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1158,13 +1307,7 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="N2:R2"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
-  <hyperlinks>
-    <hyperlink ref="R4" r:id="rId1" display="https://item.rakuten.co.jp/waste/cp209/?l-id=shoptop_widget_in_shop_ranking&amp;s-id=shoptop_in_shop_ranking" xr:uid="{10839B5B-16CC-4FFB-AEF1-CC31D1A65871}"/>
-    <hyperlink ref="W4" r:id="rId2" xr:uid="{731C128B-593B-41EA-9E5B-63DFA937F533}"/>
-    <hyperlink ref="AB4" r:id="rId3" xr:uid="{06A5CA07-028F-4DAA-9FE9-19AF9E20D5EB}"/>
-    <hyperlink ref="AG4" r:id="rId4" xr:uid="{FF499168-5821-46DB-A2FF-9FE6085D0C07}"/>
-  </hyperlinks>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/araki.xlsx
+++ b/araki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDisk\WorkingProgress\First\Python\WebScrapping\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C151EA9-085F-4083-B6A2-B824FF0BA3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4050D-B497-45FD-8E14-F8A0C3018864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F656E4F3-3E05-4A1D-88C6-D06E2568D111}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
     <t>人が入力</t>
   </si>
@@ -78,9 +78,15 @@
     <t>定価</t>
   </si>
   <si>
+    <t>仕入金額</t>
+  </si>
+  <si>
     <t>平均単価(今後必要なくなる予定)</t>
   </si>
   <si>
+    <t>FA売価(税抜)</t>
+  </si>
+  <si>
     <t>粗利</t>
   </si>
   <si>
@@ -99,89 +105,50 @@
     <t>クーポン</t>
   </si>
   <si>
+    <t>asc-1271a029-025-250</t>
+  </si>
+  <si>
+    <t>asc-1271a029-025</t>
+  </si>
+  <si>
+    <t>アシックス CP209 Boa 1271A029.025 サイズ25.0 ファントム×シルバー</t>
+  </si>
+  <si>
+    <t>アシックス CP209</t>
+  </si>
+  <si>
     <t>限定</t>
   </si>
   <si>
-    <t>アシックス CP210</t>
-  </si>
-  <si>
-    <t>asc-1273a006-600</t>
-  </si>
-  <si>
-    <t>asc-1273a006-600-280</t>
-  </si>
-  <si>
-    <t>アシックス CP210 1273A006.600 サイズ28.0 クラシックレッド×ホワイト</t>
-  </si>
-  <si>
-    <t>asc-1273a006-602</t>
-  </si>
-  <si>
-    <t>asc-1273a006-602-270</t>
-  </si>
-  <si>
-    <t>アシックス CP210 1273A006.602 サイズ27.0 ハバネロ×ピエドモントグレー</t>
-  </si>
-  <si>
-    <t>asc-1273a006-602-275</t>
-  </si>
-  <si>
-    <t>アシックス CP210 1273A006.602 サイズ27.5 ハバネロ×ピエドモントグレー</t>
-  </si>
-  <si>
-    <t>asc-1273a006-602-280</t>
-  </si>
-  <si>
-    <t>アシックス CP210 1273A006.602 サイズ28.0 ハバネロ×ピエドモントグレー</t>
-  </si>
-  <si>
-    <t>asc-1273a018-600-250</t>
-  </si>
-  <si>
-    <t>asc-1273a018-600</t>
-  </si>
-  <si>
-    <t>アシックス CP701 1273A018.600 サイズ25.0 クラシックレッド×ホワイト</t>
-  </si>
-  <si>
-    <t>アシックス CP701</t>
-  </si>
-  <si>
-    <t>asc-1273a018-600-255</t>
-  </si>
-  <si>
-    <t>アシックス CP701 1273A018.600 サイズ25.5 クラシックレッド×ホワイト</t>
-  </si>
-  <si>
-    <t>asc-1273a018-600-260</t>
-  </si>
-  <si>
-    <t>アシックス CP701 1273A018.600 サイズ26.0 クラシックレッド×ホワイト</t>
-  </si>
-  <si>
-    <t>asc-1273a018-600-265</t>
-  </si>
-  <si>
-    <t>アシックス CP701 1273A018.600 サイズ26.5 クラシックレッド×ホワイト</t>
-  </si>
-  <si>
-    <t>在庫</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>仕入金額</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>FA売価(税抜)</t>
-    <phoneticPr fontId="5"/>
+    <t>https://www.rakuten.co.jp/waste/</t>
+  </si>
+  <si>
+    <t>https://www.rakuten.co.jp/kougushop/</t>
+  </si>
+  <si>
+    <t>https://www.rakuten.co.jp/kouei-sangyou/</t>
+  </si>
+  <si>
+    <t>https://www.rakuten.co.jp/dear-worker/</t>
+  </si>
+  <si>
+    <t>asc-1271a029-025-255</t>
+  </si>
+  <si>
+    <t>アシックス CP209 Boa 1271A029.025 サイズ25.5 ファントム×シルバー</t>
+  </si>
+  <si>
+    <t>asc-1271a029-025-260</t>
+  </si>
+  <si>
+    <t>アシックス CP209 Boa 1271A029.025 サイズ26.0 ファントム×シルバー</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +187,15 @@
       <color rgb="FFFFFFFF"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -282,12 +258,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9E1F2"/>
+        <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -329,6 +305,15 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -336,12 +321,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,7 +369,22 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -393,7 +396,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -402,11 +405,12 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,19 +723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{697DB560-2986-4026-AD20-FA83918CD1A2}">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="21.19921875" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="53.796875" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
@@ -741,8 +739,8 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -790,44 +788,44 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="18" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="15" t="s">
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="18" t="s">
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="AD2" s="19"/>
-      <c r="AE2" s="19"/>
-      <c r="AF2" s="19"/>
-      <c r="AG2" s="19"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
@@ -846,37 +844,37 @@
         <v>14</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>15</v>
@@ -885,13 +883,13 @@
         <v>3</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>15</v>
@@ -900,13 +898,13 @@
         <v>3</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y3" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Z3" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="12" t="s">
         <v>15</v>
@@ -915,13 +913,13 @@
         <v>3</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD3" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF3" s="12" t="s">
         <v>15</v>
@@ -930,373 +928,220 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>14900</v>
+      </c>
+      <c r="H4" s="1">
+        <v>11920</v>
+      </c>
+      <c r="I4" s="1">
+        <v>11920</v>
+      </c>
+      <c r="J4" s="1">
+        <v>12700</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-490</v>
+      </c>
+      <c r="M4" s="1">
+        <v>13970</v>
+      </c>
+      <c r="N4" s="14">
+        <v>13750</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
+      <c r="R4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="14">
+        <v>13915</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
+      <c r="W4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" s="14">
+        <v>13970</v>
+      </c>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
+      <c r="AB4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>14677</v>
+      </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
+      <c r="AG4" s="16" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="7"/>
+      <c r="G5" s="1">
+        <v>14900</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10430</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10430</v>
+      </c>
+      <c r="J5" s="1">
+        <v>12700</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="1">
+        <v>13970</v>
+      </c>
+      <c r="N5" s="14">
+        <v>13750</v>
+      </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="14">
+        <v>13915</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="14">
+        <v>13970</v>
+      </c>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="14">
+        <v>14677</v>
+      </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
+      <c r="AG5" s="18"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="1">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>14900</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10430</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10430</v>
+      </c>
+      <c r="J6" s="1">
+        <v>12700</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>13970</v>
+      </c>
+      <c r="N6" s="14">
+        <v>13750</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="14">
+        <v>13915</v>
+      </c>
       <c r="T6" s="7"/>
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="14">
+        <v>13970</v>
+      </c>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="14">
+        <v>14677</v>
+      </c>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>6</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
+      <c r="AG6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1307,7 +1152,13 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="N2:R2"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
+  <phoneticPr fontId="6"/>
+  <hyperlinks>
+    <hyperlink ref="R4" r:id="rId1" display="https://item.rakuten.co.jp/waste/cp209/?l-id=shoptop_widget_in_shop_ranking&amp;s-id=shoptop_in_shop_ranking" xr:uid="{10839B5B-16CC-4FFB-AEF1-CC31D1A65871}"/>
+    <hyperlink ref="W4" r:id="rId2" xr:uid="{731C128B-593B-41EA-9E5B-63DFA937F533}"/>
+    <hyperlink ref="AB4" r:id="rId3" xr:uid="{06A5CA07-028F-4DAA-9FE9-19AF9E20D5EB}"/>
+    <hyperlink ref="AG4" r:id="rId4" xr:uid="{FF499168-5821-46DB-A2FF-9FE6085D0C07}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>